--- a/biology/Histoire de la zoologie et de la botanique/Reinhardt_Møbjerg_Kristensen/Reinhardt_Møbjerg_Kristensen.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Reinhardt_Møbjerg_Kristensen/Reinhardt_Møbjerg_Kristensen.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Reinhardt_M%C3%B8bjerg_Kristensen</t>
+          <t>Reinhardt_Møbjerg_Kristensen</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinhardt Møbjerg Kristensen est un zoologiste danois, né le 6 décembre 1948.
 Spécialiste des tardigrades et des embranchements microscopiques marins.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Reinhardt_M%C3%B8bjerg_Kristensen</t>
+          <t>Reinhardt_Møbjerg_Kristensen</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Quelques taxons décrits</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Loricifera
 Cycliophora
@@ -528,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Reinhardt_M%C3%B8bjerg_Kristensen</t>
+          <t>Reinhardt_Møbjerg_Kristensen</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -546,7 +560,9 @@
           <t>Publications (extrait)</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Reinhardt Møbjerg Kristensen et Peter Funch, Micrognathozoa: a new class with complicated jaws like those of Rotifera and Gnathostomulida. In Journal of Morphology Vol. 246, Nr. 1, octobre 2000. P. 1-49, PMID 11015715
 Gonzalo Giribet, Martin Vinther Sørensen, Peter Funch, Reinhardt Møbjerg Kristensen et Wolfgang Sterrer, Investigations into the phylogenetic position of Micrognathozoa using four molecular loci. In Cladistics. Vol. 20, n° 1, février 2004. Pages 1ff DOI 10.1111/j.1096-0031.2004.00004.x
